--- a/Raw_data/Treatment names and numbers highlighted fall dormancy checks 2020.xlsx
+++ b/Raw_data/Treatment names and numbers highlighted fall dormancy checks 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All trts" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,6 @@
     <sheet name="check locatitons" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'All trts'!$J$6:$Q$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'All trts'!$J$6:$Q$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -893,7 +892,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,7 +902,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
@@ -922,6 +921,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1014,7 +1019,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,10 +1044,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1059,11 +1060,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1180,7 +1189,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1222,22 +1231,22 @@
   </sheetPr>
   <dimension ref="B1:Q207"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,7 +1538,7 @@
       <c r="C17" s="1" t="n">
         <v>467951</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I17" s="0" t="n">
@@ -1541,7 +1550,7 @@
       <c r="C18" s="1" t="n">
         <v>467952</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="0" t="n">
         <v>11</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -1553,7 +1562,7 @@
       <c r="C19" s="1" t="n">
         <v>499543</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="0" t="n">
         <v>12</v>
       </c>
       <c r="I19" s="0" t="n">
@@ -1565,7 +1574,7 @@
       <c r="C20" s="1" t="n">
         <v>467953</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="0" t="n">
         <v>13</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -1577,7 +1586,7 @@
       <c r="C21" s="1" t="n">
         <v>467955</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="0" t="n">
         <v>14</v>
       </c>
       <c r="I21" s="0" t="n">
@@ -1589,7 +1598,7 @@
       <c r="C22" s="1" t="n">
         <v>467959</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="0" t="n">
         <v>15</v>
       </c>
       <c r="I22" s="0" t="n">
@@ -1601,7 +1610,7 @@
       <c r="C23" s="1" t="n">
         <v>467960</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I23" s="0" t="n">
@@ -1613,7 +1622,7 @@
       <c r="C24" s="1" t="n">
         <v>502473</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="0" t="n">
         <v>17</v>
       </c>
       <c r="I24" s="0" t="n">
@@ -1625,7 +1634,7 @@
       <c r="C25" s="1" t="n">
         <v>502477</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I25" s="0" t="n">
@@ -1637,7 +1646,7 @@
       <c r="C26" s="1" t="n">
         <v>502480</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="0" t="n">
         <v>19</v>
       </c>
       <c r="I26" s="0" t="n">
@@ -1649,7 +1658,7 @@
       <c r="C27" s="1" t="n">
         <v>502481</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="0" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1658,7 +1667,7 @@
       <c r="C28" s="1" t="n">
         <v>502482</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="0" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1667,7 +1676,7 @@
       <c r="C29" s="1" t="n">
         <v>502484</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="0" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1676,7 +1685,7 @@
       <c r="C30" s="1" t="n">
         <v>502485</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="0" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1685,7 +1694,7 @@
       <c r="C31" s="1" t="n">
         <v>502646</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="0" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1694,7 +1703,7 @@
       <c r="C32" s="1" t="n">
         <v>516791</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="0" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1703,7 +1712,7 @@
       <c r="C33" s="1" t="n">
         <v>502472</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="0" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1712,7 +1721,7 @@
       <c r="C34" s="1" t="n">
         <v>499540</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="0" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1721,7 +1730,7 @@
       <c r="C35" s="1" t="n">
         <v>499659</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="0" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1730,7 +1739,7 @@
       <c r="C36" s="1" t="n">
         <v>499660</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="0" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1739,7 +1748,7 @@
       <c r="C37" s="1" t="n">
         <v>502460</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="0" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1748,7 +1757,7 @@
       <c r="C38" s="1" t="n">
         <v>467964</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="0" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1757,7 +1766,7 @@
       <c r="C39" s="1" t="n">
         <v>467969</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="0" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1766,7 +1775,7 @@
       <c r="C40" s="1" t="n">
         <v>467978</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="0" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1777,7 +1786,7 @@
       <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="0" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1786,7 +1795,7 @@
       <c r="C42" s="1" t="n">
         <v>468005</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="0" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1795,7 +1804,7 @@
       <c r="C43" s="1" t="n">
         <v>468010</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1804,7 +1813,7 @@
       <c r="C44" s="1" t="n">
         <v>468011</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="0" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1813,7 +1822,7 @@
       <c r="C45" s="1" t="n">
         <v>468013</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="0" t="n">
         <v>38</v>
       </c>
     </row>
@@ -1822,7 +1831,7 @@
       <c r="C46" s="1" t="n">
         <v>468055</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="0" t="n">
         <v>39</v>
       </c>
     </row>
@@ -1831,7 +1840,7 @@
       <c r="C47" s="1" t="n">
         <v>468056</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="0" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1840,7 +1849,7 @@
       <c r="C48" s="1" t="n">
         <v>486130</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="0" t="n">
         <v>41</v>
       </c>
     </row>
@@ -1849,7 +1858,7 @@
       <c r="C49" s="1" t="n">
         <v>467983</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="0" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1858,7 +1867,7 @@
       <c r="C50" s="1" t="n">
         <v>467979</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="0" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1878,7 +1887,7 @@
       <c r="C52" s="1" t="n">
         <v>502463</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="0" t="n">
         <v>45</v>
       </c>
     </row>
@@ -1887,7 +1896,7 @@
       <c r="C53" s="1" t="n">
         <v>499546</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="0" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1896,7 +1905,7 @@
       <c r="C54" s="1" t="n">
         <v>502424</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="0" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1905,7 +1914,7 @@
       <c r="C55" s="1" t="n">
         <v>502462</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="0" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1914,7 +1923,7 @@
       <c r="C56" s="1" t="n">
         <v>467963</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="0" t="n">
         <v>49</v>
       </c>
     </row>
@@ -1923,7 +1932,7 @@
       <c r="C57" s="1" t="n">
         <v>467966</v>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" s="0" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1932,7 +1941,7 @@
       <c r="C58" s="1" t="n">
         <v>491398</v>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" s="0" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1941,7 +1950,7 @@
       <c r="C59" s="1" t="n">
         <v>491406</v>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" s="0" t="n">
         <v>52</v>
       </c>
     </row>
@@ -1950,7 +1959,7 @@
       <c r="C60" s="1" t="n">
         <v>494658</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="0" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1959,7 +1968,7 @@
       <c r="C61" s="1" t="n">
         <v>340117</v>
       </c>
-      <c r="D61" s="6" t="n">
+      <c r="D61" s="0" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1968,7 +1977,7 @@
       <c r="C62" s="1" t="n">
         <v>340116</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D62" s="0" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1977,7 +1986,7 @@
       <c r="C63" s="1" t="n">
         <v>340114</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" s="0" t="n">
         <v>56</v>
       </c>
     </row>
@@ -1986,7 +1995,7 @@
       <c r="C64" s="1" t="n">
         <v>452479</v>
       </c>
-      <c r="D64" s="6" t="n">
+      <c r="D64" s="0" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1995,7 +2004,7 @@
       <c r="C65" s="1" t="n">
         <v>277882</v>
       </c>
-      <c r="D65" s="6" t="n">
+      <c r="D65" s="0" t="n">
         <v>58</v>
       </c>
     </row>
@@ -2004,7 +2013,7 @@
       <c r="C66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="6" t="n">
+      <c r="D66" s="0" t="n">
         <v>59</v>
       </c>
     </row>
@@ -2013,7 +2022,7 @@
       <c r="C67" s="1" t="n">
         <v>262544</v>
       </c>
-      <c r="D67" s="6" t="n">
+      <c r="D67" s="0" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2033,7 +2042,7 @@
       <c r="C69" s="1" t="n">
         <v>253950</v>
       </c>
-      <c r="D69" s="6" t="n">
+      <c r="D69" s="0" t="n">
         <v>62</v>
       </c>
     </row>
@@ -2042,7 +2051,7 @@
       <c r="C70" s="1" t="n">
         <v>244317</v>
       </c>
-      <c r="D70" s="6" t="n">
+      <c r="D70" s="0" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2051,7 +2060,7 @@
       <c r="C71" s="1" t="n">
         <v>217419</v>
       </c>
-      <c r="D71" s="6" t="n">
+      <c r="D71" s="0" t="n">
         <v>64</v>
       </c>
     </row>
@@ -2060,7 +2069,7 @@
       <c r="C72" s="1" t="n">
         <v>212104</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" s="0" t="n">
         <v>65</v>
       </c>
     </row>
@@ -2069,7 +2078,7 @@
       <c r="C73" s="1" t="n">
         <v>206574</v>
       </c>
-      <c r="D73" s="6" t="n">
+      <c r="D73" s="0" t="n">
         <v>66</v>
       </c>
     </row>
@@ -2078,7 +2087,7 @@
       <c r="C74" s="1" t="n">
         <v>206110</v>
       </c>
-      <c r="D74" s="6" t="n">
+      <c r="D74" s="0" t="n">
         <v>67</v>
       </c>
     </row>
@@ -2087,7 +2096,7 @@
       <c r="C75" s="1" t="n">
         <v>204593</v>
       </c>
-      <c r="D75" s="6" t="n">
+      <c r="D75" s="0" t="n">
         <v>68</v>
       </c>
     </row>
@@ -2096,7 +2105,7 @@
       <c r="C76" s="1" t="n">
         <v>204591</v>
       </c>
-      <c r="D76" s="6" t="n">
+      <c r="D76" s="0" t="n">
         <v>69</v>
       </c>
     </row>
@@ -2105,7 +2114,7 @@
       <c r="C77" s="1" t="n">
         <v>183695</v>
       </c>
-      <c r="D77" s="6" t="n">
+      <c r="D77" s="0" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2114,7 +2123,7 @@
       <c r="C78" s="1" t="n">
         <v>182241</v>
       </c>
-      <c r="D78" s="6" t="n">
+      <c r="D78" s="0" t="n">
         <v>71</v>
       </c>
     </row>
@@ -2123,7 +2132,7 @@
       <c r="C79" s="1" t="n">
         <v>182238</v>
       </c>
-      <c r="D79" s="6" t="n">
+      <c r="D79" s="0" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2132,7 +2141,7 @@
       <c r="C80" s="1" t="n">
         <v>177012</v>
       </c>
-      <c r="D80" s="6" t="n">
+      <c r="D80" s="0" t="n">
         <v>73</v>
       </c>
     </row>
@@ -2141,7 +2150,7 @@
       <c r="C81" s="1" t="n">
         <v>452478</v>
       </c>
-      <c r="D81" s="6" t="n">
+      <c r="D81" s="0" t="n">
         <v>74</v>
       </c>
     </row>
@@ -2150,7 +2159,7 @@
       <c r="C82" s="1" t="n">
         <v>452480</v>
       </c>
-      <c r="D82" s="6" t="n">
+      <c r="D82" s="0" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2159,7 +2168,7 @@
       <c r="C83" s="1" t="n">
         <v>452476</v>
       </c>
-      <c r="D83" s="6" t="n">
+      <c r="D83" s="0" t="n">
         <v>76</v>
       </c>
     </row>
@@ -2168,7 +2177,7 @@
       <c r="C84" s="1" t="n">
         <v>452477</v>
       </c>
-      <c r="D84" s="6" t="n">
+      <c r="D84" s="0" t="n">
         <v>77</v>
       </c>
     </row>
@@ -2177,7 +2186,7 @@
       <c r="C85" s="1" t="n">
         <v>452475</v>
       </c>
-      <c r="D85" s="6" t="n">
+      <c r="D85" s="0" t="n">
         <v>78</v>
       </c>
     </row>
@@ -2186,7 +2195,7 @@
       <c r="C86" s="1" t="n">
         <v>452474</v>
       </c>
-      <c r="D86" s="6" t="n">
+      <c r="D86" s="0" t="n">
         <v>79</v>
       </c>
     </row>
@@ -2195,7 +2204,7 @@
       <c r="C87" s="1" t="n">
         <v>452438</v>
       </c>
-      <c r="D87" s="6" t="n">
+      <c r="D87" s="0" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2204,7 +2213,7 @@
       <c r="C88" s="1" t="n">
         <v>452437</v>
       </c>
-      <c r="D88" s="6" t="n">
+      <c r="D88" s="0" t="n">
         <v>81</v>
       </c>
     </row>
@@ -2213,7 +2222,7 @@
       <c r="C89" s="1" t="n">
         <v>440506</v>
       </c>
-      <c r="D89" s="6" t="n">
+      <c r="D89" s="0" t="n">
         <v>82</v>
       </c>
     </row>
@@ -2222,7 +2231,7 @@
       <c r="C90" s="1" t="n">
         <v>440497</v>
       </c>
-      <c r="D90" s="6" t="n">
+      <c r="D90" s="0" t="n">
         <v>83</v>
       </c>
     </row>
@@ -2231,7 +2240,7 @@
       <c r="C91" s="1" t="n">
         <v>440503</v>
       </c>
-      <c r="D91" s="6" t="n">
+      <c r="D91" s="0" t="n">
         <v>84</v>
       </c>
     </row>
@@ -2251,7 +2260,7 @@
       <c r="C93" s="1" t="n">
         <v>430564</v>
       </c>
-      <c r="D93" s="6" t="n">
+      <c r="D93" s="0" t="n">
         <v>86</v>
       </c>
     </row>
@@ -2260,7 +2269,7 @@
       <c r="C94" s="1" t="n">
         <v>426208</v>
       </c>
-      <c r="D94" s="6" t="n">
+      <c r="D94" s="0" t="n">
         <v>87</v>
       </c>
     </row>
@@ -2269,7 +2278,7 @@
       <c r="C95" s="1" t="n">
         <v>430561</v>
       </c>
-      <c r="D95" s="6" t="n">
+      <c r="D95" s="0" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2278,7 +2287,7 @@
       <c r="C96" s="1" t="n">
         <v>346902</v>
       </c>
-      <c r="D96" s="6" t="n">
+      <c r="D96" s="0" t="n">
         <v>89</v>
       </c>
     </row>
@@ -2287,7 +2296,7 @@
       <c r="C97" s="1" t="n">
         <v>346911</v>
       </c>
-      <c r="D97" s="6" t="n">
+      <c r="D97" s="0" t="n">
         <v>90</v>
       </c>
     </row>
@@ -2298,7 +2307,7 @@
       <c r="C98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="6" t="n">
+      <c r="D98" s="0" t="n">
         <v>91</v>
       </c>
     </row>
@@ -2307,7 +2316,7 @@
       <c r="C99" s="1" t="n">
         <v>340123</v>
       </c>
-      <c r="D99" s="6" t="n">
+      <c r="D99" s="0" t="n">
         <v>92</v>
       </c>
     </row>
@@ -2316,7 +2325,7 @@
       <c r="C100" s="1" t="n">
         <v>467900</v>
       </c>
-      <c r="D100" s="6" t="n">
+      <c r="D100" s="0" t="n">
         <v>93</v>
       </c>
     </row>
@@ -2325,7 +2334,7 @@
       <c r="C101" s="1" t="n">
         <v>467901</v>
       </c>
-      <c r="D101" s="6" t="n">
+      <c r="D101" s="0" t="n">
         <v>94</v>
       </c>
     </row>
@@ -2334,7 +2343,7 @@
       <c r="C102" s="1" t="n">
         <v>467902</v>
       </c>
-      <c r="D102" s="6" t="n">
+      <c r="D102" s="0" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2343,7 +2352,7 @@
       <c r="C103" s="1" t="n">
         <v>467903</v>
       </c>
-      <c r="D103" s="6" t="n">
+      <c r="D103" s="0" t="n">
         <v>96</v>
       </c>
     </row>
@@ -2352,7 +2361,7 @@
       <c r="C104" s="1" t="n">
         <v>467939</v>
       </c>
-      <c r="D104" s="6" t="n">
+      <c r="D104" s="0" t="n">
         <v>97</v>
       </c>
     </row>
@@ -2363,7 +2372,7 @@
       <c r="C105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D105" s="6" t="n">
+      <c r="D105" s="0" t="n">
         <v>98</v>
       </c>
     </row>
@@ -2372,7 +2381,7 @@
       <c r="C106" s="1" t="n">
         <v>467947</v>
       </c>
-      <c r="D106" s="6" t="n">
+      <c r="D106" s="0" t="n">
         <v>99</v>
       </c>
     </row>
@@ -2381,7 +2390,7 @@
       <c r="C107" s="1" t="n">
         <v>467936</v>
       </c>
-      <c r="D107" s="6" t="n">
+      <c r="D107" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2390,7 +2399,7 @@
       <c r="C108" s="1" t="n">
         <v>467914</v>
       </c>
-      <c r="D108" s="6" t="n">
+      <c r="D108" s="0" t="n">
         <v>101</v>
       </c>
     </row>
@@ -2399,7 +2408,7 @@
       <c r="C109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="6" t="n">
+      <c r="D109" s="0" t="n">
         <v>102</v>
       </c>
     </row>
@@ -2408,7 +2417,7 @@
       <c r="C110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="6" t="n">
+      <c r="D110" s="0" t="n">
         <v>103</v>
       </c>
     </row>
@@ -2426,7 +2435,7 @@
       <c r="C112" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="6" t="n">
+      <c r="D112" s="0" t="n">
         <v>105</v>
       </c>
     </row>
@@ -2435,7 +2444,7 @@
       <c r="C113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D113" s="6" t="n">
+      <c r="D113" s="0" t="n">
         <v>106</v>
       </c>
     </row>
@@ -2444,7 +2453,7 @@
       <c r="C114" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="6" t="n">
+      <c r="D114" s="0" t="n">
         <v>107</v>
       </c>
     </row>
@@ -2453,7 +2462,7 @@
       <c r="C115" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="6" t="n">
+      <c r="D115" s="0" t="n">
         <v>108</v>
       </c>
     </row>
@@ -2462,7 +2471,7 @@
       <c r="C116" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="6" t="n">
+      <c r="D116" s="0" t="n">
         <v>109</v>
       </c>
     </row>
@@ -2471,7 +2480,7 @@
       <c r="C117" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="6" t="n">
+      <c r="D117" s="0" t="n">
         <v>110</v>
       </c>
     </row>
@@ -2480,7 +2489,7 @@
       <c r="C118" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D118" s="6" t="n">
+      <c r="D118" s="0" t="n">
         <v>111</v>
       </c>
     </row>
@@ -2498,7 +2507,7 @@
       <c r="C120" s="1" t="n">
         <v>22278</v>
       </c>
-      <c r="D120" s="6" t="n">
+      <c r="D120" s="0" t="n">
         <v>113</v>
       </c>
     </row>
@@ -2507,7 +2516,7 @@
       <c r="C121" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D121" s="6" t="n">
+      <c r="D121" s="0" t="n">
         <v>114</v>
       </c>
     </row>
@@ -2516,7 +2525,7 @@
       <c r="C122" s="1" t="n">
         <v>467908</v>
       </c>
-      <c r="D122" s="6" t="n">
+      <c r="D122" s="0" t="n">
         <v>115</v>
       </c>
     </row>
@@ -2525,7 +2534,7 @@
       <c r="C123" s="1" t="n">
         <v>467906</v>
       </c>
-      <c r="D123" s="6" t="n">
+      <c r="D123" s="0" t="n">
         <v>116</v>
       </c>
     </row>
@@ -2534,7 +2543,7 @@
       <c r="C124" s="1" t="n">
         <v>467905</v>
       </c>
-      <c r="D124" s="6" t="n">
+      <c r="D124" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -2543,7 +2552,7 @@
       <c r="C125" s="1" t="n">
         <v>467904</v>
       </c>
-      <c r="D125" s="6" t="n">
+      <c r="D125" s="0" t="n">
         <v>118</v>
       </c>
     </row>
@@ -2552,7 +2561,7 @@
       <c r="C126" s="1" t="n">
         <v>467925</v>
       </c>
-      <c r="D126" s="6" t="n">
+      <c r="D126" s="0" t="n">
         <v>119</v>
       </c>
     </row>
@@ -2561,7 +2570,7 @@
       <c r="C127" s="1" t="n">
         <v>467924</v>
       </c>
-      <c r="D127" s="6" t="n">
+      <c r="D127" s="0" t="n">
         <v>120</v>
       </c>
     </row>
@@ -2570,7 +2579,7 @@
       <c r="C128" s="1" t="n">
         <v>467922</v>
       </c>
-      <c r="D128" s="6" t="n">
+      <c r="D128" s="0" t="n">
         <v>121</v>
       </c>
     </row>
@@ -2579,7 +2588,7 @@
       <c r="C129" s="1" t="n">
         <v>467918</v>
       </c>
-      <c r="D129" s="6" t="n">
+      <c r="D129" s="0" t="n">
         <v>122</v>
       </c>
     </row>
@@ -2588,7 +2597,7 @@
       <c r="C130" s="1" t="n">
         <v>467915</v>
       </c>
-      <c r="D130" s="6" t="n">
+      <c r="D130" s="0" t="n">
         <v>123</v>
       </c>
     </row>
@@ -2597,7 +2606,7 @@
       <c r="C131" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D131" s="6" t="n">
+      <c r="D131" s="0" t="n">
         <v>124</v>
       </c>
     </row>
@@ -2606,7 +2615,7 @@
       <c r="C132" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D132" s="6" t="n">
+      <c r="D132" s="0" t="n">
         <v>125</v>
       </c>
     </row>
@@ -2615,7 +2624,7 @@
       <c r="C133" s="1" t="n">
         <v>467938</v>
       </c>
-      <c r="D133" s="6" t="n">
+      <c r="D133" s="0" t="n">
         <v>126</v>
       </c>
     </row>
@@ -2624,7 +2633,7 @@
       <c r="C134" s="1" t="n">
         <v>467935</v>
       </c>
-      <c r="D134" s="6" t="n">
+      <c r="D134" s="0" t="n">
         <v>127</v>
       </c>
     </row>
@@ -2633,7 +2642,7 @@
       <c r="C135" s="1" t="n">
         <v>467932</v>
       </c>
-      <c r="D135" s="6" t="n">
+      <c r="D135" s="0" t="n">
         <v>128</v>
       </c>
     </row>
@@ -2642,7 +2651,7 @@
       <c r="C136" s="1" t="n">
         <v>467931</v>
       </c>
-      <c r="D136" s="6" t="n">
+      <c r="D136" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -2651,7 +2660,7 @@
       <c r="C137" s="1" t="n">
         <v>467928</v>
       </c>
-      <c r="D137" s="6" t="n">
+      <c r="D137" s="0" t="n">
         <v>130</v>
       </c>
     </row>
@@ -2660,7 +2669,7 @@
       <c r="C138" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D138" s="6" t="n">
+      <c r="D138" s="0" t="n">
         <v>131</v>
       </c>
     </row>
@@ -2669,7 +2678,7 @@
       <c r="C139" s="1" t="n">
         <v>452500</v>
       </c>
-      <c r="D139" s="6" t="n">
+      <c r="D139" s="0" t="n">
         <v>132</v>
       </c>
     </row>
@@ -2691,7 +2700,7 @@
       <c r="C141" s="1" t="n">
         <v>452490</v>
       </c>
-      <c r="D141" s="6" t="n">
+      <c r="D141" s="0" t="n">
         <v>134</v>
       </c>
     </row>
@@ -2700,7 +2709,7 @@
       <c r="C142" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="6" t="n">
+      <c r="D142" s="0" t="n">
         <v>135</v>
       </c>
     </row>
@@ -2709,7 +2718,7 @@
       <c r="C143" s="1" t="n">
         <v>467895</v>
       </c>
-      <c r="D143" s="6" t="n">
+      <c r="D143" s="0" t="n">
         <v>136</v>
       </c>
     </row>
@@ -2718,7 +2727,7 @@
       <c r="C144" s="1" t="n">
         <v>467894</v>
       </c>
-      <c r="D144" s="6" t="n">
+      <c r="D144" s="0" t="n">
         <v>137</v>
       </c>
     </row>
@@ -2727,7 +2736,7 @@
       <c r="C145" s="1" t="n">
         <v>467893</v>
       </c>
-      <c r="D145" s="6" t="n">
+      <c r="D145" s="0" t="n">
         <v>138</v>
       </c>
     </row>
@@ -2749,7 +2758,7 @@
       <c r="C147" s="1" t="n">
         <v>464793</v>
       </c>
-      <c r="D147" s="6" t="n">
+      <c r="D147" s="0" t="n">
         <v>140</v>
       </c>
     </row>
@@ -2758,7 +2767,7 @@
       <c r="C148" s="1" t="n">
         <v>464749</v>
       </c>
-      <c r="D148" s="6" t="n">
+      <c r="D148" s="0" t="n">
         <v>141</v>
       </c>
     </row>
@@ -2767,7 +2776,7 @@
       <c r="C149" s="1" t="n">
         <v>464773</v>
       </c>
-      <c r="D149" s="6" t="n">
+      <c r="D149" s="0" t="n">
         <v>142</v>
       </c>
     </row>
@@ -2776,7 +2785,7 @@
       <c r="C150" s="1" t="n">
         <v>467899</v>
       </c>
-      <c r="D150" s="6" t="n">
+      <c r="D150" s="0" t="n">
         <v>143</v>
       </c>
     </row>
@@ -2791,10 +2800,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0"/>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="6" t="n">
+      <c r="D152" s="0" t="n">
         <v>145</v>
       </c>
     </row>
@@ -2805,7 +2814,7 @@
       <c r="C153" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="6" t="n">
+      <c r="D153" s="0" t="n">
         <v>146</v>
       </c>
     </row>
@@ -2816,7 +2825,7 @@
       <c r="C154" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D154" s="6" t="n">
+      <c r="D154" s="0" t="n">
         <v>147</v>
       </c>
     </row>
@@ -2827,7 +2836,7 @@
       <c r="C155" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="6" t="n">
+      <c r="D155" s="0" t="n">
         <v>148</v>
       </c>
     </row>
@@ -2838,7 +2847,7 @@
       <c r="C156" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D156" s="6" t="n">
+      <c r="D156" s="0" t="n">
         <v>149</v>
       </c>
     </row>
@@ -2849,7 +2858,7 @@
       <c r="C157" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D157" s="6" t="n">
+      <c r="D157" s="0" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2860,18 +2869,18 @@
       <c r="C158" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D158" s="6" t="n">
+      <c r="D158" s="0" t="n">
         <v>151</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D159" s="6" t="n">
+      <c r="D159" s="0" t="n">
         <v>152</v>
       </c>
     </row>
@@ -2882,7 +2891,7 @@
       <c r="C160" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D160" s="6" t="n">
+      <c r="D160" s="0" t="n">
         <v>153</v>
       </c>
     </row>
@@ -2893,7 +2902,7 @@
       <c r="C161" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D161" s="6" t="n">
+      <c r="D161" s="0" t="n">
         <v>154</v>
       </c>
     </row>
@@ -2904,18 +2913,18 @@
       <c r="C162" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D162" s="6" t="n">
+      <c r="D162" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D163" s="6" t="n">
+      <c r="D163" s="0" t="n">
         <v>156</v>
       </c>
     </row>
@@ -2926,7 +2935,7 @@
       <c r="C164" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D164" s="6" t="n">
+      <c r="D164" s="0" t="n">
         <v>157</v>
       </c>
     </row>
@@ -2937,7 +2946,7 @@
       <c r="C165" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D165" s="6" t="n">
+      <c r="D165" s="0" t="n">
         <v>158</v>
       </c>
     </row>
@@ -2948,7 +2957,7 @@
       <c r="C166" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D166" s="6" t="n">
+      <c r="D166" s="0" t="n">
         <v>159</v>
       </c>
     </row>
@@ -2959,7 +2968,7 @@
       <c r="C167" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D167" s="6" t="n">
+      <c r="D167" s="0" t="n">
         <v>160</v>
       </c>
     </row>
@@ -2970,7 +2979,7 @@
       <c r="C168" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D168" s="6" t="n">
+      <c r="D168" s="0" t="n">
         <v>161</v>
       </c>
     </row>
@@ -2981,7 +2990,7 @@
       <c r="C169" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D169" s="6" t="n">
+      <c r="D169" s="0" t="n">
         <v>162</v>
       </c>
     </row>
@@ -2992,7 +3001,7 @@
       <c r="C170" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D170" s="6" t="n">
+      <c r="D170" s="0" t="n">
         <v>163</v>
       </c>
     </row>
@@ -3003,7 +3012,7 @@
       <c r="C171" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D171" s="6" t="n">
+      <c r="D171" s="0" t="n">
         <v>164</v>
       </c>
     </row>
@@ -3014,7 +3023,7 @@
       <c r="C172" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D172" s="6" t="n">
+      <c r="D172" s="0" t="n">
         <v>165</v>
       </c>
     </row>
@@ -3025,7 +3034,7 @@
       <c r="C173" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D173" s="6" t="n">
+      <c r="D173" s="0" t="n">
         <v>166</v>
       </c>
     </row>
@@ -3036,7 +3045,7 @@
       <c r="C174" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D174" s="6" t="n">
+      <c r="D174" s="0" t="n">
         <v>167</v>
       </c>
     </row>
@@ -3047,7 +3056,7 @@
       <c r="C175" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D175" s="6" t="n">
+      <c r="D175" s="0" t="n">
         <v>168</v>
       </c>
     </row>
@@ -3058,7 +3067,7 @@
       <c r="C176" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D176" s="6" t="n">
+      <c r="D176" s="0" t="n">
         <v>169</v>
       </c>
     </row>
@@ -3069,7 +3078,7 @@
       <c r="C177" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D177" s="6" t="n">
+      <c r="D177" s="0" t="n">
         <v>170</v>
       </c>
     </row>
@@ -3080,18 +3089,18 @@
       <c r="C178" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D178" s="6" t="n">
+      <c r="D178" s="0" t="n">
         <v>171</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C179" s="7" t="n">
+      <c r="C179" s="6" t="n">
         <v>150024</v>
       </c>
-      <c r="D179" s="6" t="n">
+      <c r="D179" s="0" t="n">
         <v>172</v>
       </c>
     </row>
@@ -3102,18 +3111,18 @@
       <c r="C180" s="1" t="n">
         <v>140468</v>
       </c>
-      <c r="D180" s="6" t="n">
+      <c r="D180" s="0" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C181" s="7" t="n">
+      <c r="C181" s="6" t="n">
         <v>152152</v>
       </c>
-      <c r="D181" s="6" t="n">
+      <c r="D181" s="0" t="n">
         <v>174</v>
       </c>
     </row>
@@ -3124,7 +3133,7 @@
       <c r="C182" s="1" t="n">
         <v>140427</v>
       </c>
-      <c r="D182" s="6" t="n">
+      <c r="D182" s="0" t="n">
         <v>175</v>
       </c>
     </row>
@@ -3135,7 +3144,7 @@
       <c r="C183" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D183" s="6" t="n">
+      <c r="D183" s="0" t="n">
         <v>176</v>
       </c>
     </row>
@@ -3146,7 +3155,7 @@
       <c r="C184" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D184" s="6" t="n">
+      <c r="D184" s="0" t="n">
         <v>177</v>
       </c>
     </row>
@@ -3157,7 +3166,7 @@
       <c r="C185" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D185" s="6" t="n">
+      <c r="D185" s="0" t="n">
         <v>178</v>
       </c>
     </row>
@@ -3168,7 +3177,7 @@
       <c r="C186" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D186" s="6" t="n">
+      <c r="D186" s="0" t="n">
         <v>179</v>
       </c>
     </row>
@@ -3179,7 +3188,7 @@
       <c r="C187" s="1" t="n">
         <v>5454</v>
       </c>
-      <c r="D187" s="6" t="n">
+      <c r="D187" s="0" t="n">
         <v>180</v>
       </c>
     </row>
@@ -3190,7 +3199,7 @@
       <c r="C188" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D188" s="6" t="n">
+      <c r="D188" s="0" t="n">
         <v>181</v>
       </c>
     </row>
@@ -3201,7 +3210,7 @@
       <c r="C189" s="1" t="n">
         <v>5432</v>
       </c>
-      <c r="D189" s="6" t="n">
+      <c r="D189" s="0" t="n">
         <v>182</v>
       </c>
     </row>
@@ -3212,7 +3221,7 @@
       <c r="C190" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D190" s="6" t="n">
+      <c r="D190" s="0" t="n">
         <v>183</v>
       </c>
     </row>
@@ -3223,7 +3232,7 @@
       <c r="C191" s="1" t="n">
         <v>5364</v>
       </c>
-      <c r="D191" s="6" t="n">
+      <c r="D191" s="0" t="n">
         <v>184</v>
       </c>
     </row>
@@ -3234,7 +3243,7 @@
       <c r="C192" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D192" s="6" t="n">
+      <c r="D192" s="0" t="n">
         <v>185</v>
       </c>
     </row>
@@ -3245,7 +3254,7 @@
       <c r="C193" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D193" s="6" t="n">
+      <c r="D193" s="0" t="n">
         <v>186</v>
       </c>
     </row>
@@ -3256,7 +3265,7 @@
       <c r="C194" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D194" s="6" t="n">
+      <c r="D194" s="0" t="n">
         <v>187</v>
       </c>
     </row>
@@ -3267,7 +3276,7 @@
       <c r="C195" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D195" s="6" t="n">
+      <c r="D195" s="0" t="n">
         <v>188</v>
       </c>
     </row>
@@ -3278,7 +3287,7 @@
       <c r="C196" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D196" s="6" t="n">
+      <c r="D196" s="0" t="n">
         <v>189</v>
       </c>
     </row>
@@ -3289,7 +3298,7 @@
       <c r="C197" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D197" s="6" t="n">
+      <c r="D197" s="0" t="n">
         <v>190</v>
       </c>
     </row>
@@ -3300,7 +3309,7 @@
       <c r="C198" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D198" s="6" t="n">
+      <c r="D198" s="0" t="n">
         <v>191</v>
       </c>
     </row>
@@ -3311,7 +3320,7 @@
       <c r="C199" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D199" s="6" t="n">
+      <c r="D199" s="0" t="n">
         <v>192</v>
       </c>
     </row>
@@ -3322,7 +3331,7 @@
       <c r="C200" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D200" s="6" t="n">
+      <c r="D200" s="0" t="n">
         <v>193</v>
       </c>
     </row>
@@ -3333,7 +3342,7 @@
       <c r="C201" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D201" s="6" t="n">
+      <c r="D201" s="0" t="n">
         <v>194</v>
       </c>
     </row>
@@ -3344,7 +3353,7 @@
       <c r="C202" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D202" s="6" t="n">
+      <c r="D202" s="0" t="n">
         <v>195</v>
       </c>
     </row>
@@ -3355,7 +3364,7 @@
       <c r="C203" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D203" s="6" t="n">
+      <c r="D203" s="0" t="n">
         <v>196</v>
       </c>
     </row>
@@ -3366,7 +3375,7 @@
       <c r="C204" s="1" t="n">
         <v>5472</v>
       </c>
-      <c r="D204" s="6" t="n">
+      <c r="D204" s="0" t="n">
         <v>197</v>
       </c>
     </row>
@@ -3377,7 +3386,7 @@
       <c r="C205" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D205" s="6" t="n">
+      <c r="D205" s="0" t="n">
         <v>198</v>
       </c>
     </row>
@@ -3404,7 +3413,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3419,43 +3428,43 @@
   </sheetPr>
   <dimension ref="A6:R209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A206" activeCellId="0" sqref="A206"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -3464,12 +3473,12 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="J7" s="1" t="n">
         <v>112</v>
       </c>
@@ -3632,7 +3641,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -3687,7 +3696,7 @@
       <c r="A17" s="1" t="n">
         <v>467951</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3695,7 +3704,7 @@
       <c r="A18" s="1" t="n">
         <v>467952</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3703,7 +3712,7 @@
       <c r="A19" s="1" t="n">
         <v>499543</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3711,7 +3720,7 @@
       <c r="A20" s="1" t="n">
         <v>467953</v>
       </c>
-      <c r="B20" s="6" t="n">
+      <c r="B20" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3719,7 +3728,7 @@
       <c r="A21" s="1" t="n">
         <v>467955</v>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B21" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3727,7 +3736,7 @@
       <c r="A22" s="1" t="n">
         <v>467959</v>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="0" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3735,7 +3744,7 @@
       <c r="A23" s="1" t="n">
         <v>467960</v>
       </c>
-      <c r="B23" s="6" t="n">
+      <c r="B23" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3743,7 +3752,7 @@
       <c r="A24" s="1" t="n">
         <v>502473</v>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B24" s="0" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3751,7 +3760,7 @@
       <c r="A25" s="1" t="n">
         <v>502477</v>
       </c>
-      <c r="B25" s="6" t="n">
+      <c r="B25" s="0" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3759,7 +3768,7 @@
       <c r="A26" s="1" t="n">
         <v>502480</v>
       </c>
-      <c r="B26" s="6" t="n">
+      <c r="B26" s="0" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3767,7 +3776,7 @@
       <c r="A27" s="1" t="n">
         <v>502481</v>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B27" s="0" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3775,15 +3784,15 @@
       <c r="A28" s="1" t="n">
         <v>502482</v>
       </c>
-      <c r="B28" s="6" t="n">
+      <c r="B28" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="10" t="n">
         <v>502484</v>
       </c>
-      <c r="B29" s="6" t="n">
+      <c r="B29" s="11" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3791,7 +3800,7 @@
       <c r="A30" s="1" t="n">
         <v>502485</v>
       </c>
-      <c r="B30" s="6" t="n">
+      <c r="B30" s="0" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3799,7 +3808,7 @@
       <c r="A31" s="1" t="n">
         <v>502646</v>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B31" s="0" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3807,7 +3816,7 @@
       <c r="A32" s="1" t="n">
         <v>516791</v>
       </c>
-      <c r="B32" s="6" t="n">
+      <c r="B32" s="0" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3815,7 +3824,7 @@
       <c r="A33" s="1" t="n">
         <v>502472</v>
       </c>
-      <c r="B33" s="6" t="n">
+      <c r="B33" s="0" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3823,7 +3832,7 @@
       <c r="A34" s="1" t="n">
         <v>499540</v>
       </c>
-      <c r="B34" s="6" t="n">
+      <c r="B34" s="0" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3831,7 +3840,7 @@
       <c r="A35" s="1" t="n">
         <v>499659</v>
       </c>
-      <c r="B35" s="6" t="n">
+      <c r="B35" s="0" t="n">
         <v>28</v>
       </c>
     </row>
@@ -3839,7 +3848,7 @@
       <c r="A36" s="1" t="n">
         <v>499660</v>
       </c>
-      <c r="B36" s="6" t="n">
+      <c r="B36" s="0" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3847,7 +3856,7 @@
       <c r="A37" s="1" t="n">
         <v>502460</v>
       </c>
-      <c r="B37" s="6" t="n">
+      <c r="B37" s="0" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3855,7 +3864,7 @@
       <c r="A38" s="1" t="n">
         <v>467964</v>
       </c>
-      <c r="B38" s="6" t="n">
+      <c r="B38" s="0" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3863,7 +3872,7 @@
       <c r="A39" s="1" t="n">
         <v>467969</v>
       </c>
-      <c r="B39" s="6" t="n">
+      <c r="B39" s="0" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3871,7 +3880,7 @@
       <c r="A40" s="1" t="n">
         <v>467978</v>
       </c>
-      <c r="B40" s="6" t="n">
+      <c r="B40" s="0" t="n">
         <v>33</v>
       </c>
     </row>
@@ -3879,7 +3888,7 @@
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="6" t="n">
+      <c r="B41" s="0" t="n">
         <v>34</v>
       </c>
       <c r="C41" s="0" t="n">
@@ -3890,7 +3899,7 @@
       <c r="A42" s="1" t="n">
         <v>468005</v>
       </c>
-      <c r="B42" s="6" t="n">
+      <c r="B42" s="0" t="n">
         <v>35</v>
       </c>
     </row>
@@ -3898,7 +3907,7 @@
       <c r="A43" s="1" t="n">
         <v>468010</v>
       </c>
-      <c r="B43" s="6" t="n">
+      <c r="B43" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3906,7 +3915,7 @@
       <c r="A44" s="1" t="n">
         <v>468011</v>
       </c>
-      <c r="B44" s="6" t="n">
+      <c r="B44" s="0" t="n">
         <v>37</v>
       </c>
     </row>
@@ -3914,7 +3923,7 @@
       <c r="A45" s="1" t="n">
         <v>468013</v>
       </c>
-      <c r="B45" s="6" t="n">
+      <c r="B45" s="0" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3922,7 +3931,7 @@
       <c r="A46" s="1" t="n">
         <v>468055</v>
       </c>
-      <c r="B46" s="6" t="n">
+      <c r="B46" s="0" t="n">
         <v>39</v>
       </c>
     </row>
@@ -3930,7 +3939,7 @@
       <c r="A47" s="1" t="n">
         <v>468056</v>
       </c>
-      <c r="B47" s="6" t="n">
+      <c r="B47" s="0" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3938,7 +3947,7 @@
       <c r="A48" s="1" t="n">
         <v>486130</v>
       </c>
-      <c r="B48" s="6" t="n">
+      <c r="B48" s="0" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3946,7 +3955,7 @@
       <c r="A49" s="1" t="n">
         <v>467983</v>
       </c>
-      <c r="B49" s="6" t="n">
+      <c r="B49" s="0" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3954,7 +3963,7 @@
       <c r="A50" s="1" t="n">
         <v>467979</v>
       </c>
-      <c r="B50" s="6" t="n">
+      <c r="B50" s="0" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3970,7 +3979,7 @@
       <c r="A52" s="1" t="n">
         <v>502463</v>
       </c>
-      <c r="B52" s="6" t="n">
+      <c r="B52" s="0" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3978,7 +3987,7 @@
       <c r="A53" s="1" t="n">
         <v>499546</v>
       </c>
-      <c r="B53" s="6" t="n">
+      <c r="B53" s="0" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3986,7 +3995,7 @@
       <c r="A54" s="1" t="n">
         <v>502424</v>
       </c>
-      <c r="B54" s="6" t="n">
+      <c r="B54" s="0" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3994,7 +4003,7 @@
       <c r="A55" s="1" t="n">
         <v>502462</v>
       </c>
-      <c r="B55" s="6" t="n">
+      <c r="B55" s="0" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4002,7 +4011,7 @@
       <c r="A56" s="1" t="n">
         <v>467963</v>
       </c>
-      <c r="B56" s="6" t="n">
+      <c r="B56" s="0" t="n">
         <v>49</v>
       </c>
     </row>
@@ -4010,7 +4019,7 @@
       <c r="A57" s="1" t="n">
         <v>467966</v>
       </c>
-      <c r="B57" s="6" t="n">
+      <c r="B57" s="0" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4018,7 +4027,7 @@
       <c r="A58" s="1" t="n">
         <v>491398</v>
       </c>
-      <c r="B58" s="6" t="n">
+      <c r="B58" s="0" t="n">
         <v>51</v>
       </c>
     </row>
@@ -4026,7 +4035,7 @@
       <c r="A59" s="1" t="n">
         <v>491406</v>
       </c>
-      <c r="B59" s="6" t="n">
+      <c r="B59" s="0" t="n">
         <v>52</v>
       </c>
     </row>
@@ -4034,7 +4043,7 @@
       <c r="A60" s="1" t="n">
         <v>494658</v>
       </c>
-      <c r="B60" s="6" t="n">
+      <c r="B60" s="0" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4042,7 +4051,7 @@
       <c r="A61" s="1" t="n">
         <v>340117</v>
       </c>
-      <c r="B61" s="6" t="n">
+      <c r="B61" s="0" t="n">
         <v>54</v>
       </c>
     </row>
@@ -4050,7 +4059,7 @@
       <c r="A62" s="1" t="n">
         <v>340116</v>
       </c>
-      <c r="B62" s="6" t="n">
+      <c r="B62" s="0" t="n">
         <v>55</v>
       </c>
     </row>
@@ -4058,7 +4067,7 @@
       <c r="A63" s="1" t="n">
         <v>340114</v>
       </c>
-      <c r="B63" s="6" t="n">
+      <c r="B63" s="0" t="n">
         <v>56</v>
       </c>
     </row>
@@ -4066,7 +4075,7 @@
       <c r="A64" s="1" t="n">
         <v>452479</v>
       </c>
-      <c r="B64" s="6" t="n">
+      <c r="B64" s="0" t="n">
         <v>57</v>
       </c>
     </row>
@@ -4074,15 +4083,15 @@
       <c r="A65" s="1" t="n">
         <v>277882</v>
       </c>
-      <c r="B65" s="6" t="n">
+      <c r="B65" s="0" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="6" t="n">
+      <c r="B66" s="0" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4090,7 +4099,7 @@
       <c r="A67" s="1" t="n">
         <v>262544</v>
       </c>
-      <c r="B67" s="6" t="n">
+      <c r="B67" s="0" t="n">
         <v>60</v>
       </c>
     </row>
@@ -4106,7 +4115,7 @@
       <c r="A69" s="1" t="n">
         <v>253950</v>
       </c>
-      <c r="B69" s="6" t="n">
+      <c r="B69" s="0" t="n">
         <v>62</v>
       </c>
     </row>
@@ -4114,7 +4123,7 @@
       <c r="A70" s="1" t="n">
         <v>244317</v>
       </c>
-      <c r="B70" s="6" t="n">
+      <c r="B70" s="0" t="n">
         <v>63</v>
       </c>
     </row>
@@ -4122,7 +4131,7 @@
       <c r="A71" s="1" t="n">
         <v>217419</v>
       </c>
-      <c r="B71" s="6" t="n">
+      <c r="B71" s="0" t="n">
         <v>64</v>
       </c>
     </row>
@@ -4130,7 +4139,7 @@
       <c r="A72" s="1" t="n">
         <v>212104</v>
       </c>
-      <c r="B72" s="6" t="n">
+      <c r="B72" s="0" t="n">
         <v>65</v>
       </c>
     </row>
@@ -4138,7 +4147,7 @@
       <c r="A73" s="1" t="n">
         <v>206574</v>
       </c>
-      <c r="B73" s="6" t="n">
+      <c r="B73" s="0" t="n">
         <v>66</v>
       </c>
     </row>
@@ -4146,7 +4155,7 @@
       <c r="A74" s="1" t="n">
         <v>206110</v>
       </c>
-      <c r="B74" s="6" t="n">
+      <c r="B74" s="0" t="n">
         <v>67</v>
       </c>
     </row>
@@ -4154,7 +4163,7 @@
       <c r="A75" s="1" t="n">
         <v>204593</v>
       </c>
-      <c r="B75" s="6" t="n">
+      <c r="B75" s="0" t="n">
         <v>68</v>
       </c>
     </row>
@@ -4162,7 +4171,7 @@
       <c r="A76" s="1" t="n">
         <v>204591</v>
       </c>
-      <c r="B76" s="6" t="n">
+      <c r="B76" s="0" t="n">
         <v>69</v>
       </c>
     </row>
@@ -4170,7 +4179,7 @@
       <c r="A77" s="1" t="n">
         <v>183695</v>
       </c>
-      <c r="B77" s="6" t="n">
+      <c r="B77" s="0" t="n">
         <v>70</v>
       </c>
     </row>
@@ -4178,7 +4187,7 @@
       <c r="A78" s="1" t="n">
         <v>182241</v>
       </c>
-      <c r="B78" s="6" t="n">
+      <c r="B78" s="0" t="n">
         <v>71</v>
       </c>
     </row>
@@ -4186,7 +4195,7 @@
       <c r="A79" s="1" t="n">
         <v>182238</v>
       </c>
-      <c r="B79" s="6" t="n">
+      <c r="B79" s="0" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4194,7 +4203,7 @@
       <c r="A80" s="1" t="n">
         <v>177012</v>
       </c>
-      <c r="B80" s="6" t="n">
+      <c r="B80" s="0" t="n">
         <v>73</v>
       </c>
     </row>
@@ -4202,7 +4211,7 @@
       <c r="A81" s="1" t="n">
         <v>452478</v>
       </c>
-      <c r="B81" s="6" t="n">
+      <c r="B81" s="0" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4210,7 +4219,7 @@
       <c r="A82" s="1" t="n">
         <v>452480</v>
       </c>
-      <c r="B82" s="6" t="n">
+      <c r="B82" s="0" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4218,7 +4227,7 @@
       <c r="A83" s="1" t="n">
         <v>452476</v>
       </c>
-      <c r="B83" s="6" t="n">
+      <c r="B83" s="0" t="n">
         <v>76</v>
       </c>
     </row>
@@ -4226,7 +4235,7 @@
       <c r="A84" s="1" t="n">
         <v>452477</v>
       </c>
-      <c r="B84" s="6" t="n">
+      <c r="B84" s="0" t="n">
         <v>77</v>
       </c>
     </row>
@@ -4234,7 +4243,7 @@
       <c r="A85" s="1" t="n">
         <v>452475</v>
       </c>
-      <c r="B85" s="6" t="n">
+      <c r="B85" s="0" t="n">
         <v>78</v>
       </c>
     </row>
@@ -4242,7 +4251,7 @@
       <c r="A86" s="1" t="n">
         <v>452474</v>
       </c>
-      <c r="B86" s="6" t="n">
+      <c r="B86" s="0" t="n">
         <v>79</v>
       </c>
     </row>
@@ -4250,7 +4259,7 @@
       <c r="A87" s="1" t="n">
         <v>452438</v>
       </c>
-      <c r="B87" s="6" t="n">
+      <c r="B87" s="0" t="n">
         <v>80</v>
       </c>
     </row>
@@ -4258,7 +4267,7 @@
       <c r="A88" s="1" t="n">
         <v>452437</v>
       </c>
-      <c r="B88" s="6" t="n">
+      <c r="B88" s="0" t="n">
         <v>81</v>
       </c>
     </row>
@@ -4266,7 +4275,7 @@
       <c r="A89" s="1" t="n">
         <v>440506</v>
       </c>
-      <c r="B89" s="6" t="n">
+      <c r="B89" s="0" t="n">
         <v>82</v>
       </c>
     </row>
@@ -4274,7 +4283,7 @@
       <c r="A90" s="1" t="n">
         <v>440497</v>
       </c>
-      <c r="B90" s="6" t="n">
+      <c r="B90" s="0" t="n">
         <v>83</v>
       </c>
     </row>
@@ -4282,7 +4291,7 @@
       <c r="A91" s="1" t="n">
         <v>440503</v>
       </c>
-      <c r="B91" s="6" t="n">
+      <c r="B91" s="0" t="n">
         <v>84</v>
       </c>
     </row>
@@ -4290,7 +4299,7 @@
       <c r="A92" s="1" t="n">
         <v>430563</v>
       </c>
-      <c r="B92" s="6" t="n">
+      <c r="B92" s="0" t="n">
         <v>85</v>
       </c>
     </row>
@@ -4298,7 +4307,7 @@
       <c r="A93" s="1" t="n">
         <v>430564</v>
       </c>
-      <c r="B93" s="6" t="n">
+      <c r="B93" s="0" t="n">
         <v>86</v>
       </c>
     </row>
@@ -4306,7 +4315,7 @@
       <c r="A94" s="1" t="n">
         <v>426208</v>
       </c>
-      <c r="B94" s="6" t="n">
+      <c r="B94" s="0" t="n">
         <v>87</v>
       </c>
     </row>
@@ -4314,7 +4323,7 @@
       <c r="A95" s="1" t="n">
         <v>430561</v>
       </c>
-      <c r="B95" s="6" t="n">
+      <c r="B95" s="0" t="n">
         <v>88</v>
       </c>
     </row>
@@ -4322,7 +4331,7 @@
       <c r="A96" s="1" t="n">
         <v>346902</v>
       </c>
-      <c r="B96" s="6" t="n">
+      <c r="B96" s="0" t="n">
         <v>89</v>
       </c>
     </row>
@@ -4330,15 +4339,15 @@
       <c r="A97" s="1" t="n">
         <v>346911</v>
       </c>
-      <c r="B97" s="6" t="n">
+      <c r="B97" s="0" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="6" t="n">
+      <c r="B98" s="0" t="n">
         <v>91</v>
       </c>
       <c r="C98" s="0" t="n">
@@ -4349,7 +4358,7 @@
       <c r="A99" s="1" t="n">
         <v>340123</v>
       </c>
-      <c r="B99" s="6" t="n">
+      <c r="B99" s="0" t="n">
         <v>92</v>
       </c>
     </row>
@@ -4357,7 +4366,7 @@
       <c r="A100" s="1" t="n">
         <v>467900</v>
       </c>
-      <c r="B100" s="6" t="n">
+      <c r="B100" s="0" t="n">
         <v>93</v>
       </c>
     </row>
@@ -4365,7 +4374,7 @@
       <c r="A101" s="1" t="n">
         <v>467901</v>
       </c>
-      <c r="B101" s="6" t="n">
+      <c r="B101" s="0" t="n">
         <v>94</v>
       </c>
     </row>
@@ -4373,7 +4382,7 @@
       <c r="A102" s="1" t="n">
         <v>467902</v>
       </c>
-      <c r="B102" s="6" t="n">
+      <c r="B102" s="0" t="n">
         <v>95</v>
       </c>
     </row>
@@ -4381,7 +4390,7 @@
       <c r="A103" s="1" t="n">
         <v>467903</v>
       </c>
-      <c r="B103" s="6" t="n">
+      <c r="B103" s="0" t="n">
         <v>96</v>
       </c>
     </row>
@@ -4389,7 +4398,7 @@
       <c r="A104" s="1" t="n">
         <v>467939</v>
       </c>
-      <c r="B104" s="6" t="n">
+      <c r="B104" s="0" t="n">
         <v>97</v>
       </c>
     </row>
@@ -4397,7 +4406,7 @@
       <c r="A105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="6" t="n">
+      <c r="B105" s="0" t="n">
         <v>98</v>
       </c>
     </row>
@@ -4405,7 +4414,7 @@
       <c r="A106" s="1" t="n">
         <v>467947</v>
       </c>
-      <c r="B106" s="6" t="n">
+      <c r="B106" s="0" t="n">
         <v>99</v>
       </c>
     </row>
@@ -4413,7 +4422,7 @@
       <c r="A107" s="1" t="n">
         <v>467936</v>
       </c>
-      <c r="B107" s="6" t="n">
+      <c r="B107" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4421,7 +4430,7 @@
       <c r="A108" s="1" t="n">
         <v>467914</v>
       </c>
-      <c r="B108" s="6" t="n">
+      <c r="B108" s="0" t="n">
         <v>101</v>
       </c>
     </row>
@@ -4429,15 +4438,15 @@
       <c r="A109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="6" t="n">
+      <c r="B109" s="0" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B110" s="12" t="n">
+      <c r="B110" s="13" t="n">
         <v>103</v>
       </c>
     </row>
@@ -4453,7 +4462,7 @@
       <c r="A112" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B112" s="6" t="n">
+      <c r="B112" s="0" t="n">
         <v>105</v>
       </c>
     </row>
@@ -4461,7 +4470,7 @@
       <c r="A113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="6" t="n">
+      <c r="B113" s="0" t="n">
         <v>106</v>
       </c>
     </row>
@@ -4469,7 +4478,7 @@
       <c r="A114" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B114" s="6" t="n">
+      <c r="B114" s="0" t="n">
         <v>107</v>
       </c>
     </row>
@@ -4477,7 +4486,7 @@
       <c r="A115" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B115" s="6" t="n">
+      <c r="B115" s="0" t="n">
         <v>108</v>
       </c>
     </row>
@@ -4485,7 +4494,7 @@
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B116" s="6" t="n">
+      <c r="B116" s="0" t="n">
         <v>109</v>
       </c>
     </row>
@@ -4493,7 +4502,7 @@
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B117" s="6" t="n">
+      <c r="B117" s="0" t="n">
         <v>110</v>
       </c>
     </row>
@@ -4501,7 +4510,7 @@
       <c r="A118" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B118" s="6" t="n">
+      <c r="B118" s="0" t="n">
         <v>111</v>
       </c>
     </row>
@@ -4517,15 +4526,15 @@
       <c r="A120" s="1" t="n">
         <v>22278</v>
       </c>
-      <c r="B120" s="6" t="n">
+      <c r="B120" s="0" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="6" t="n">
+      <c r="B121" s="0" t="n">
         <v>114</v>
       </c>
       <c r="C121" s="0" t="n">
@@ -4542,7 +4551,7 @@
       <c r="A122" s="1" t="n">
         <v>467908</v>
       </c>
-      <c r="B122" s="6" t="n">
+      <c r="B122" s="0" t="n">
         <v>115</v>
       </c>
     </row>
@@ -4550,7 +4559,7 @@
       <c r="A123" s="1" t="n">
         <v>467906</v>
       </c>
-      <c r="B123" s="6" t="n">
+      <c r="B123" s="0" t="n">
         <v>116</v>
       </c>
     </row>
@@ -4558,7 +4567,7 @@
       <c r="A124" s="1" t="n">
         <v>467905</v>
       </c>
-      <c r="B124" s="6" t="n">
+      <c r="B124" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -4566,7 +4575,7 @@
       <c r="A125" s="1" t="n">
         <v>467904</v>
       </c>
-      <c r="B125" s="6" t="n">
+      <c r="B125" s="0" t="n">
         <v>118</v>
       </c>
     </row>
@@ -4574,7 +4583,7 @@
       <c r="A126" s="1" t="n">
         <v>467925</v>
       </c>
-      <c r="B126" s="6" t="n">
+      <c r="B126" s="0" t="n">
         <v>119</v>
       </c>
     </row>
@@ -4582,7 +4591,7 @@
       <c r="A127" s="1" t="n">
         <v>467924</v>
       </c>
-      <c r="B127" s="6" t="n">
+      <c r="B127" s="0" t="n">
         <v>120</v>
       </c>
     </row>
@@ -4590,7 +4599,7 @@
       <c r="A128" s="1" t="n">
         <v>467922</v>
       </c>
-      <c r="B128" s="6" t="n">
+      <c r="B128" s="0" t="n">
         <v>121</v>
       </c>
     </row>
@@ -4598,7 +4607,7 @@
       <c r="A129" s="1" t="n">
         <v>467918</v>
       </c>
-      <c r="B129" s="6" t="n">
+      <c r="B129" s="0" t="n">
         <v>122</v>
       </c>
     </row>
@@ -4606,15 +4615,15 @@
       <c r="A130" s="1" t="n">
         <v>467915</v>
       </c>
-      <c r="B130" s="6" t="n">
+      <c r="B130" s="0" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="6" t="n">
+      <c r="B131" s="0" t="n">
         <v>124</v>
       </c>
       <c r="D131" s="0" t="n">
@@ -4631,7 +4640,7 @@
       <c r="A132" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B132" s="6" t="n">
+      <c r="B132" s="0" t="n">
         <v>125</v>
       </c>
     </row>
@@ -4639,7 +4648,7 @@
       <c r="A133" s="1" t="n">
         <v>467938</v>
       </c>
-      <c r="B133" s="6" t="n">
+      <c r="B133" s="0" t="n">
         <v>126</v>
       </c>
     </row>
@@ -4647,7 +4656,7 @@
       <c r="A134" s="1" t="n">
         <v>467935</v>
       </c>
-      <c r="B134" s="6" t="n">
+      <c r="B134" s="0" t="n">
         <v>127</v>
       </c>
     </row>
@@ -4655,7 +4664,7 @@
       <c r="A135" s="1" t="n">
         <v>467932</v>
       </c>
-      <c r="B135" s="6" t="n">
+      <c r="B135" s="0" t="n">
         <v>128</v>
       </c>
     </row>
@@ -4663,7 +4672,7 @@
       <c r="A136" s="1" t="n">
         <v>467931</v>
       </c>
-      <c r="B136" s="6" t="n">
+      <c r="B136" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -4671,15 +4680,15 @@
       <c r="A137" s="1" t="n">
         <v>467928</v>
       </c>
-      <c r="B137" s="6" t="n">
+      <c r="B137" s="0" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B138" s="6" t="n">
+      <c r="B138" s="0" t="n">
         <v>131</v>
       </c>
     </row>
@@ -4687,7 +4696,7 @@
       <c r="A139" s="1" t="n">
         <v>452500</v>
       </c>
-      <c r="B139" s="6" t="n">
+      <c r="B139" s="0" t="n">
         <v>132</v>
       </c>
     </row>
@@ -4695,7 +4704,7 @@
       <c r="A140" s="1" t="n">
         <v>452499</v>
       </c>
-      <c r="B140" s="6" t="n">
+      <c r="B140" s="0" t="n">
         <v>133</v>
       </c>
     </row>
@@ -4703,15 +4712,15 @@
       <c r="A141" s="1" t="n">
         <v>452490</v>
       </c>
-      <c r="B141" s="6" t="n">
+      <c r="B141" s="0" t="n">
         <v>134</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B142" s="6" t="n">
+      <c r="B142" s="0" t="n">
         <v>135</v>
       </c>
     </row>
@@ -4719,7 +4728,7 @@
       <c r="A143" s="1" t="n">
         <v>467895</v>
       </c>
-      <c r="B143" s="6" t="n">
+      <c r="B143" s="0" t="n">
         <v>136</v>
       </c>
     </row>
@@ -4727,7 +4736,7 @@
       <c r="A144" s="1" t="n">
         <v>467894</v>
       </c>
-      <c r="B144" s="6" t="n">
+      <c r="B144" s="0" t="n">
         <v>137</v>
       </c>
     </row>
@@ -4735,7 +4744,7 @@
       <c r="A145" s="1" t="n">
         <v>467893</v>
       </c>
-      <c r="B145" s="6" t="n">
+      <c r="B145" s="0" t="n">
         <v>138</v>
       </c>
     </row>
@@ -4743,7 +4752,7 @@
       <c r="A146" s="1" t="n">
         <v>464740</v>
       </c>
-      <c r="B146" s="6" t="n">
+      <c r="B146" s="0" t="n">
         <v>139</v>
       </c>
     </row>
@@ -4751,7 +4760,7 @@
       <c r="A147" s="1" t="n">
         <v>464793</v>
       </c>
-      <c r="B147" s="6" t="n">
+      <c r="B147" s="0" t="n">
         <v>140</v>
       </c>
     </row>
@@ -4759,7 +4768,7 @@
       <c r="A148" s="1" t="n">
         <v>464749</v>
       </c>
-      <c r="B148" s="6" t="n">
+      <c r="B148" s="0" t="n">
         <v>141</v>
       </c>
     </row>
@@ -4767,7 +4776,7 @@
       <c r="A149" s="1" t="n">
         <v>464773</v>
       </c>
-      <c r="B149" s="6" t="n">
+      <c r="B149" s="0" t="n">
         <v>142</v>
       </c>
     </row>
@@ -4775,7 +4784,7 @@
       <c r="A150" s="1" t="n">
         <v>467899</v>
       </c>
-      <c r="B150" s="6" t="n">
+      <c r="B150" s="0" t="n">
         <v>143</v>
       </c>
     </row>
@@ -4788,10 +4797,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B152" s="6" t="n">
+      <c r="B152" s="0" t="n">
         <v>145</v>
       </c>
       <c r="F152" s="0" t="s">
@@ -4805,16 +4814,16 @@
       <c r="A153" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="6" t="n">
+      <c r="B153" s="0" t="n">
         <v>146</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F153" s="13" t="s">
+      <c r="F153" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H153" s="14" t="s">
+      <c r="H153" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4822,16 +4831,16 @@
       <c r="A154" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B154" s="6" t="n">
+      <c r="B154" s="0" t="n">
         <v>147</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F154" s="13" t="s">
+      <c r="F154" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H154" s="14" t="s">
+      <c r="H154" s="15" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4839,16 +4848,16 @@
       <c r="A155" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B155" s="6" t="n">
+      <c r="B155" s="0" t="n">
         <v>148</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>4.1</v>
       </c>
-      <c r="F155" s="13" t="s">
+      <c r="F155" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H155" s="14" t="s">
+      <c r="H155" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4856,16 +4865,16 @@
       <c r="A156" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B156" s="6" t="n">
+      <c r="B156" s="0" t="n">
         <v>149</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F156" s="13" t="s">
+      <c r="F156" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H156" s="14" t="s">
+      <c r="H156" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4873,16 +4882,16 @@
       <c r="A157" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B157" s="6" t="n">
+      <c r="B157" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>3.9</v>
       </c>
-      <c r="F157" s="13" t="s">
+      <c r="F157" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H157" s="14" t="s">
+      <c r="H157" s="15" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4890,16 +4899,16 @@
       <c r="A158" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B158" s="6" t="n">
+      <c r="B158" s="0" t="n">
         <v>151</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F158" s="13" t="s">
+      <c r="F158" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H158" s="14" t="s">
+      <c r="H158" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4907,37 +4916,37 @@
       <c r="A159" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B159" s="6" t="n">
+      <c r="B159" s="0" t="n">
         <v>152</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F159" s="13" t="s">
+      <c r="F159" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H159" s="15" t="s">
+      <c r="H159" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I159" s="16"/>
-      <c r="J159" s="16"/>
-      <c r="K159" s="16"/>
-      <c r="L159" s="16"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="6" t="n">
+      <c r="B160" s="0" t="n">
         <v>153</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F160" s="13" t="s">
+      <c r="F160" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H160" s="14" t="s">
+      <c r="H160" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4945,16 +4954,16 @@
       <c r="A161" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B161" s="6" t="n">
+      <c r="B161" s="0" t="n">
         <v>154</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="F161" s="13" t="s">
+      <c r="F161" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H161" s="14" t="s">
+      <c r="H161" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4962,16 +4971,16 @@
       <c r="A162" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B162" s="6" t="n">
+      <c r="B162" s="0" t="n">
         <v>155</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F162" s="13" t="s">
+      <c r="F162" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H162" s="14" t="s">
+      <c r="H162" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4979,31 +4988,31 @@
       <c r="A163" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B163" s="6" t="n">
+      <c r="B163" s="0" t="n">
         <v>156</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F163" s="13" t="s">
+      <c r="F163" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H163" s="14" t="s">
+      <c r="H163" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J163" s="17" t="s">
+      <c r="J163" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K163" s="18" t="s">
+      <c r="K163" s="19" t="s">
         <v>1</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="N163" s="17" t="s">
+      <c r="N163" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O163" s="18" t="s">
+      <c r="O163" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5011,28 +5020,28 @@
       <c r="A164" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B164" s="6" t="n">
+      <c r="B164" s="0" t="n">
         <v>157</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F164" s="13" t="s">
+      <c r="F164" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H164" s="14" t="s">
+      <c r="H164" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J164" s="19" t="s">
+      <c r="J164" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="K164" s="20" t="n">
+      <c r="K164" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="N164" s="19" t="s">
+      <c r="N164" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="O164" s="21" t="s">
+      <c r="O164" s="22" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5040,22 +5049,22 @@
       <c r="A165" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="6" t="n">
+      <c r="B165" s="0" t="n">
         <v>158</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="J165" s="19" t="s">
+      <c r="J165" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="K165" s="20" t="n">
+      <c r="K165" s="21" t="n">
         <v>3.6</v>
       </c>
-      <c r="N165" s="19" t="s">
+      <c r="N165" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="O165" s="21" t="s">
+      <c r="O165" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5063,22 +5072,22 @@
       <c r="A166" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="6" t="n">
+      <c r="B166" s="0" t="n">
         <v>159</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="J166" s="19" t="s">
+      <c r="J166" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="K166" s="20" t="n">
+      <c r="K166" s="21" t="n">
         <v>3.8</v>
       </c>
-      <c r="N166" s="19" t="s">
+      <c r="N166" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="O166" s="21" t="s">
+      <c r="O166" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5086,22 +5095,22 @@
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B167" s="6" t="n">
+      <c r="B167" s="0" t="n">
         <v>160</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>5.4</v>
       </c>
-      <c r="J167" s="19" t="s">
+      <c r="J167" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="K167" s="20" t="n">
+      <c r="K167" s="21" t="n">
         <v>5.4</v>
       </c>
-      <c r="N167" s="19" t="s">
+      <c r="N167" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="O167" s="21" t="s">
+      <c r="O167" s="22" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5109,22 +5118,22 @@
       <c r="A168" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B168" s="6" t="n">
+      <c r="B168" s="0" t="n">
         <v>161</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J168" s="19" t="s">
+      <c r="J168" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="K168" s="20" t="n">
+      <c r="K168" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="N168" s="19" t="s">
+      <c r="N168" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="O168" s="21" t="s">
+      <c r="O168" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5132,22 +5141,22 @@
       <c r="A169" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="6" t="n">
+      <c r="B169" s="0" t="n">
         <v>162</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>4.3</v>
       </c>
-      <c r="J169" s="19" t="s">
+      <c r="J169" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="K169" s="20" t="n">
+      <c r="K169" s="21" t="n">
         <v>4.3</v>
       </c>
-      <c r="N169" s="19" t="s">
+      <c r="N169" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="O169" s="21" t="s">
+      <c r="O169" s="22" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5155,22 +5164,22 @@
       <c r="A170" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="6" t="n">
+      <c r="B170" s="0" t="n">
         <v>163</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>4.1</v>
       </c>
-      <c r="J170" s="19" t="s">
+      <c r="J170" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="K170" s="20" t="n">
+      <c r="K170" s="21" t="n">
         <v>4.1</v>
       </c>
-      <c r="N170" s="19" t="s">
+      <c r="N170" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="O170" s="21" t="s">
+      <c r="O170" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5178,22 +5187,22 @@
       <c r="A171" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="6" t="n">
+      <c r="B171" s="0" t="n">
         <v>164</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="J171" s="19" t="s">
+      <c r="J171" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="K171" s="20" t="n">
+      <c r="K171" s="21" t="n">
         <v>1.8</v>
       </c>
-      <c r="N171" s="19" t="s">
+      <c r="N171" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="O171" s="22" t="s">
+      <c r="O171" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5201,22 +5210,22 @@
       <c r="A172" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="6" t="n">
+      <c r="B172" s="0" t="n">
         <v>165</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J172" s="19" t="s">
+      <c r="J172" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="K172" s="20" t="n">
+      <c r="K172" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="N172" s="19" t="s">
+      <c r="N172" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="O172" s="21" t="s">
+      <c r="O172" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5224,22 +5233,22 @@
       <c r="A173" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B173" s="6" t="n">
+      <c r="B173" s="0" t="n">
         <v>166</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="J173" s="19" t="s">
+      <c r="J173" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="K173" s="20" t="n">
+      <c r="K173" s="21" t="n">
         <v>5.8</v>
       </c>
-      <c r="N173" s="19" t="s">
+      <c r="N173" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="O173" s="21" t="s">
+      <c r="O173" s="22" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5247,22 +5256,22 @@
       <c r="A174" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B174" s="6" t="n">
+      <c r="B174" s="0" t="n">
         <v>167</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="J174" s="19" t="s">
+      <c r="J174" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="K174" s="20" t="n">
+      <c r="K174" s="21" t="n">
         <v>5.5</v>
       </c>
-      <c r="N174" s="19" t="s">
+      <c r="N174" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="O174" s="21" t="s">
+      <c r="O174" s="22" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5270,22 +5279,22 @@
       <c r="A175" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B175" s="6" t="n">
+      <c r="B175" s="0" t="n">
         <v>168</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="J175" s="19" t="s">
+      <c r="J175" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K175" s="20" t="n">
+      <c r="K175" s="21" t="n">
         <v>5.8</v>
       </c>
-      <c r="N175" s="19" t="s">
+      <c r="N175" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="O175" s="21" t="s">
+      <c r="O175" s="22" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5293,22 +5302,22 @@
       <c r="A176" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B176" s="6" t="n">
+      <c r="B176" s="0" t="n">
         <v>169</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="J176" s="19" t="s">
+      <c r="J176" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="K176" s="20" t="n">
+      <c r="K176" s="21" t="n">
         <v>3.6</v>
       </c>
-      <c r="N176" s="19" t="s">
+      <c r="N176" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="O176" s="21" t="s">
+      <c r="O176" s="22" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5316,22 +5325,22 @@
       <c r="A177" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B177" s="6" t="n">
+      <c r="B177" s="0" t="n">
         <v>170</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="J177" s="19" t="s">
+      <c r="J177" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="K177" s="20" t="n">
+      <c r="K177" s="21" t="n">
         <v>3.6</v>
       </c>
-      <c r="N177" s="19" t="s">
+      <c r="N177" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="O177" s="21" t="s">
+      <c r="O177" s="22" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5339,22 +5348,22 @@
       <c r="A178" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B178" s="6" t="n">
+      <c r="B178" s="0" t="n">
         <v>171</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="J178" s="19" t="s">
+      <c r="J178" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K178" s="20" t="n">
+      <c r="K178" s="21" t="n">
         <v>3.5</v>
       </c>
-      <c r="N178" s="19" t="s">
+      <c r="N178" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="O178" s="23" t="s">
+      <c r="O178" s="24" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5362,22 +5371,22 @@
       <c r="A179" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B179" s="6" t="n">
+      <c r="B179" s="0" t="n">
         <v>172</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="J179" s="19" t="s">
+      <c r="J179" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K179" s="20" t="n">
+      <c r="K179" s="21" t="n">
         <v>3.5</v>
       </c>
-      <c r="N179" s="19" t="s">
+      <c r="N179" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="O179" s="23" t="n">
+      <c r="O179" s="24" t="n">
         <v>150024</v>
       </c>
     </row>
@@ -5385,22 +5394,22 @@
       <c r="A180" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B180" s="6" t="n">
+      <c r="B180" s="0" t="n">
         <v>173</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J180" s="19" t="s">
+      <c r="J180" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="K180" s="20" t="n">
+      <c r="K180" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="N180" s="19" t="s">
+      <c r="N180" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="O180" s="23" t="n">
+      <c r="O180" s="24" t="n">
         <v>140468</v>
       </c>
     </row>
@@ -5408,22 +5417,22 @@
       <c r="A181" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B181" s="6" t="n">
+      <c r="B181" s="0" t="n">
         <v>174</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="J181" s="24" t="s">
+      <c r="J181" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="K181" s="25" t="n">
+      <c r="K181" s="26" t="n">
         <v>3.6</v>
       </c>
-      <c r="N181" s="19" t="s">
+      <c r="N181" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="O181" s="23" t="n">
+      <c r="O181" s="24" t="n">
         <v>152152</v>
       </c>
     </row>
@@ -5431,22 +5440,22 @@
       <c r="A182" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B182" s="6" t="n">
+      <c r="B182" s="0" t="n">
         <v>175</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="J182" s="26" t="s">
+      <c r="J182" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="K182" s="27" t="n">
+      <c r="K182" s="28" t="n">
         <v>3.8</v>
       </c>
-      <c r="N182" s="19" t="s">
+      <c r="N182" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="O182" s="21" t="n">
+      <c r="O182" s="22" t="n">
         <v>140427</v>
       </c>
     </row>
@@ -5454,32 +5463,32 @@
       <c r="A183" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B183" s="6" t="n">
+      <c r="B183" s="0" t="n">
         <v>176</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G183" s="13" t="s">
+      <c r="G183" s="14" t="s">
         <v>152</v>
       </c>
       <c r="I183" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="J183" s="28"/>
-      <c r="K183" s="29"/>
+      <c r="J183" s="29"/>
+      <c r="K183" s="30"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B184" s="6" t="n">
+      <c r="B184" s="0" t="n">
         <v>177</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="G184" s="13" t="s">
+      <c r="G184" s="14" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5487,13 +5496,13 @@
       <c r="A185" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B185" s="6" t="n">
+      <c r="B185" s="0" t="n">
         <v>178</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G185" s="13" t="s">
+      <c r="G185" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5501,21 +5510,21 @@
       <c r="A186" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B186" s="6" t="n">
+      <c r="B186" s="0" t="n">
         <v>179</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="G186" s="13" t="s">
+      <c r="G186" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="11" t="n">
+      <c r="A187" s="12" t="n">
         <v>5454</v>
       </c>
-      <c r="B187" s="12" t="n">
+      <c r="B187" s="13" t="n">
         <v>180</v>
       </c>
       <c r="C187" s="0" t="n">
@@ -5526,7 +5535,7 @@
       <c r="A188" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B188" s="6" t="n">
+      <c r="B188" s="0" t="n">
         <v>181</v>
       </c>
       <c r="C188" s="0" t="n">
@@ -5537,7 +5546,7 @@
       <c r="A189" s="1" t="n">
         <v>5432</v>
       </c>
-      <c r="B189" s="6" t="n">
+      <c r="B189" s="0" t="n">
         <v>182</v>
       </c>
       <c r="C189" s="0" t="n">
@@ -5551,13 +5560,13 @@
       <c r="A190" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B190" s="6" t="n">
+      <c r="B190" s="0" t="n">
         <v>183</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F190" s="30" t="s">
+      <c r="F190" s="31" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5565,13 +5574,13 @@
       <c r="A191" s="1" t="n">
         <v>5364</v>
       </c>
-      <c r="B191" s="6" t="n">
+      <c r="B191" s="0" t="n">
         <v>184</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F191" s="31" t="s">
+      <c r="F191" s="32" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5579,13 +5588,13 @@
       <c r="A192" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B192" s="6" t="n">
+      <c r="B192" s="0" t="n">
         <v>185</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F192" s="31" t="s">
+      <c r="F192" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5593,13 +5602,13 @@
       <c r="A193" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B193" s="6" t="n">
+      <c r="B193" s="0" t="n">
         <v>186</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F193" s="31" t="s">
+      <c r="F193" s="32" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5607,13 +5616,13 @@
       <c r="A194" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B194" s="6" t="n">
+      <c r="B194" s="0" t="n">
         <v>187</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F194" s="31" t="s">
+      <c r="F194" s="32" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5621,13 +5630,13 @@
       <c r="A195" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B195" s="6" t="n">
+      <c r="B195" s="0" t="n">
         <v>188</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F195" s="31" t="s">
+      <c r="F195" s="32" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5635,13 +5644,13 @@
       <c r="A196" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B196" s="6" t="n">
+      <c r="B196" s="0" t="n">
         <v>189</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F196" s="31" t="s">
+      <c r="F196" s="32" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5649,13 +5658,13 @@
       <c r="A197" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B197" s="6" t="n">
+      <c r="B197" s="0" t="n">
         <v>190</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F197" s="31" t="s">
+      <c r="F197" s="32" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5663,13 +5672,13 @@
       <c r="A198" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B198" s="6" t="n">
+      <c r="B198" s="0" t="n">
         <v>191</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F198" s="31" t="s">
+      <c r="F198" s="32" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5677,13 +5686,13 @@
       <c r="A199" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B199" s="6" t="n">
+      <c r="B199" s="0" t="n">
         <v>192</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F199" s="31" t="s">
+      <c r="F199" s="32" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5691,13 +5700,13 @@
       <c r="A200" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B200" s="6" t="n">
+      <c r="B200" s="0" t="n">
         <v>193</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F200" s="31" t="s">
+      <c r="F200" s="32" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5705,13 +5714,13 @@
       <c r="A201" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B201" s="6" t="n">
+      <c r="B201" s="0" t="n">
         <v>194</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F201" s="31" t="s">
+      <c r="F201" s="32" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5719,13 +5728,13 @@
       <c r="A202" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B202" s="6" t="n">
+      <c r="B202" s="0" t="n">
         <v>195</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F202" s="31" t="s">
+      <c r="F202" s="32" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5733,13 +5742,13 @@
       <c r="A203" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B203" s="6" t="n">
+      <c r="B203" s="0" t="n">
         <v>196</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F203" s="31" t="s">
+      <c r="F203" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5747,13 +5756,13 @@
       <c r="A204" s="1" t="n">
         <v>5472</v>
       </c>
-      <c r="B204" s="6" t="n">
+      <c r="B204" s="0" t="n">
         <v>197</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F204" s="31" t="s">
+      <c r="F204" s="32" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5761,13 +5770,13 @@
       <c r="A205" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B205" s="6" t="n">
+      <c r="B205" s="0" t="n">
         <v>198</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F205" s="31" t="s">
+      <c r="F205" s="32" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5781,7 +5790,7 @@
       <c r="C206" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F206" s="31" t="s">
+      <c r="F206" s="32" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5795,26 +5804,26 @@
       <c r="C207" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F207" s="31" t="s">
+      <c r="F207" s="32" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
-      <c r="F208" s="31" t="s">
+      <c r="F208" s="32" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1"/>
-      <c r="F209" s="31" t="s">
+      <c r="F209" s="32" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5829,13 +5838,13 @@
   </sheetPr>
   <dimension ref="A1:BC1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,7 +6017,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6023,15 +6032,15 @@
   </sheetPr>
   <dimension ref="C5:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,7 +6166,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
